--- a/Project/CC Project.xlsx
+++ b/Project/CC Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mum0.sharepoint.com/sites/CS516-2023-07A-07D-01/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayasaa/git_code/cloud_computing/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{B4FA328D-D445-4E40-AC59-924E6841EA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA527F5-5DEC-1D4F-8978-01F075170464}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC332711-C202-7741-9349-751684D9A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29380" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About Project" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>Project: Migrate one of your previous web project to Cloud!</t>
   </si>
@@ -635,6 +635,24 @@
   </si>
   <si>
     <t>TSDBA</t>
+  </si>
+  <si>
+    <t>Baysa</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Zaya</t>
+  </si>
+  <si>
+    <t>Domain name</t>
+  </si>
+  <si>
+    <t>Thang</t>
+  </si>
+  <si>
+    <t>Api Gateway</t>
   </si>
 </sst>
 </file>
@@ -764,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -815,12 +833,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -874,6 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -890,10 +920,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE90F3-251E-4C69-A414-CB5A16979E74}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,19 +1201,21 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1195,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1203,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1211,12 +1239,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1224,12 +1252,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1254,8 +1282,14 @@
       <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1280,159 +1314,187 @@
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="J12" s="3"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>4</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1445,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2053,12 +2115,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2212,15 +2271,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF3AA20-F9E5-4030-93A9-DF6209C9F6DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696AB5C4-F99C-4AA5-8C05-7EC21FEE3096}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="076b1c44-c22a-4c4f-8451-3fbabf3c4b40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2244,17 +2314,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696AB5C4-F99C-4AA5-8C05-7EC21FEE3096}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF3AA20-F9E5-4030-93A9-DF6209C9F6DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="076b1c44-c22a-4c4f-8451-3fbabf3c4b40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>